--- a/lib/files/import_data.xlsx
+++ b/lib/files/import_data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="344" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="344" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pokemon" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Friends" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
   <si>
     <t>Vulpix</t>
   </si>
@@ -570,6 +571,24 @@
   </si>
   <si>
     <t>c2.staticflickr.com/6/5532/30167630216_4c89cfff91.jpg</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>20-10 này bạn sẽ đi chơi cùng ai?</t>
+  </si>
+  <si>
+    <t>vn</t>
+  </si>
+  <si>
+    <t>Bạn sẽ đi chơi cùng với $RTEXT$. Chúc 2 bạn có thời gian hạnh phúc bên nhau nhá.</t>
   </si>
 </sst>
 </file>
@@ -717,7 +736,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -935,7 +954,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -951,7 +970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -1456,4 +1475,56 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>